--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.4129145659858056</v>
+        <v>4.4129146340500522</v>
       </c>
       <c r="C2">
-        <v>12.515837281778373</v>
+        <v>12.515837252358311</v>
       </c>
       <c r="D2">
-        <v>25.780905192524695</v>
+        <v>25.78090522466383</v>
       </c>
       <c r="E2">
-        <v>33.227926895101454</v>
+        <v>33.227926896541859</v>
       </c>
       <c r="F2">
-        <v>14.231244259324519</v>
+        <v>14.23124422787296</v>
       </c>
       <c r="G2">
-        <v>3.2474800271269242</v>
+        <v>3.2474800137679201</v>
       </c>
       <c r="H2">
-        <v>12.579414199583717</v>
+        <v>12.579414112178203</v>
       </c>
       <c r="I2">
-        <v>16.934993185322682</v>
+        <v>16.934993186982755</v>
       </c>
       <c r="J2">
-        <v>24.356461538787137</v>
+        <v>24.356461646719222</v>
       </c>
       <c r="K2">
-        <v>8.3663901066190114</v>
+        <v>8.3663900714944806</v>
       </c>
       <c r="L2">
-        <v>9.2689855801559347</v>
+        <v>9.2689855875930025</v>
       </c>
       <c r="M2">
-        <v>-9.2209614413773657</v>
+        <v>-9.2209614442682355</v>
       </c>
       <c r="N2">
-        <v>18.773264842556976</v>
+        <v>18.773264803058705</v>
       </c>
       <c r="O2">
-        <v>20.414234830865446</v>
+        <v>20.41423487247226</v>
       </c>
       <c r="P2">
-        <v>22.221224436061355</v>
+        <v>22.22122441707182</v>
       </c>
       <c r="Q2">
-        <v>0.70662640583407232</v>
+        <v>0.7066263929391231</v>
       </c>
       <c r="R2">
-        <v>-7.3733077713065827</v>
+        <v>-7.3733077377562868</v>
       </c>
       <c r="S2">
-        <v>31.4062337659341</v>
+        <v>31.406233766523776</v>
       </c>
       <c r="T2">
-        <v>32.86868290699018</v>
+        <v>32.868682906136634</v>
       </c>
       <c r="U2">
-        <v>-6.6805906039681576E-2</v>
+        <v>-6.6805920260392462E-2</v>
       </c>
       <c r="V2">
-        <v>13.290127095782909</v>
+        <v>13.290127018971292</v>
       </c>
       <c r="W2">
-        <v>-6.2051937375546071</v>
+        <v>-6.2051939677932353</v>
       </c>
       <c r="X2">
-        <v>2.7470835064760002</v>
+        <v>2.7470834940754103</v>
       </c>
       <c r="Y2">
-        <v>30.3609544882801</v>
+        <v>30.360954400595229</v>
       </c>
       <c r="Z2">
-        <v>15.811551230661369</v>
+        <v>15.811551191669501</v>
       </c>
       <c r="AA2">
-        <v>38.658925152469791</v>
+        <v>38.658925120785646</v>
       </c>
       <c r="AB2">
-        <v>27.840014119588623</v>
+        <v>27.840014190997902</v>
       </c>
       <c r="AC2">
-        <v>5.0377521772654381</v>
+        <v>5.0377521324258083</v>
       </c>
       <c r="AD2">
-        <v>40.658904397352202</v>
+        <v>40.6589044200649</v>
       </c>
       <c r="AE2">
-        <v>14.538890244073722</v>
+        <v>14.538889942457676</v>
       </c>
       <c r="AF2">
-        <v>19.913616953841721</v>
+        <v>19.913616783184594</v>
       </c>
       <c r="AG2">
-        <v>27.822309912839017</v>
+        <v>27.822309985381555</v>
       </c>
       <c r="AH2">
-        <v>24.847213470415802</v>
+        <v>24.847213372140438</v>
       </c>
       <c r="AI2">
-        <v>33.652477702420242</v>
+        <v>33.6524774940874</v>
       </c>
       <c r="AJ2">
-        <v>23.811574183159927</v>
+        <v>23.811573964133878</v>
       </c>
       <c r="AK2">
-        <v>28.505265366330985</v>
+        <v>28.505265418170321</v>
       </c>
       <c r="AL2">
-        <v>-2.4620927565204394</v>
+        <v>-2.4620928793634405</v>
       </c>
       <c r="AM2">
-        <v>26.021814536737214</v>
+        <v>26.021814370035074</v>
       </c>
       <c r="AN2">
-        <v>27.39320955412305</v>
+        <v>27.393209473391376</v>
       </c>
       <c r="AO2">
-        <v>40.946358781992878</v>
+        <v>40.946358881784541</v>
       </c>
       <c r="AP2">
-        <v>26.225516882467954</v>
+        <v>26.22551669410073</v>
       </c>
       <c r="AQ2">
-        <v>-3.0402512730504121</v>
+        <v>-3.0402514088270851</v>
       </c>
       <c r="AR2">
-        <v>31.103824836503343</v>
+        <v>31.103824841776063</v>
       </c>
       <c r="AS2">
-        <v>46.055233188519438</v>
+        <v>46.055233099078279</v>
       </c>
       <c r="AT2">
-        <v>12.892584923307734</v>
+        <v>12.892585056526308</v>
       </c>
       <c r="AU2">
-        <v>24.70090201346818</v>
+        <v>24.700901898011896</v>
       </c>
       <c r="AV2">
-        <v>26.323446126957066</v>
+        <v>26.323446215357915</v>
       </c>
       <c r="AW2">
-        <v>10.73968714517587</v>
+        <v>10.739686994984741</v>
       </c>
       <c r="AX2">
-        <v>32.951825609236138</v>
+        <v>32.951825730702424</v>
       </c>
       <c r="AY2">
-        <v>38.723375701347422</v>
+        <v>38.723375734655804</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.307714853780134</v>
+        <v>13.307714624248202</v>
       </c>
       <c r="C3">
-        <v>13.001264980956758</v>
+        <v>13.001264992951173</v>
       </c>
       <c r="D3">
-        <v>27.879234131696851</v>
+        <v>27.879233967006485</v>
       </c>
       <c r="E3">
-        <v>26.731325799583178</v>
+        <v>26.731325839652182</v>
       </c>
       <c r="F3">
-        <v>13.649602412680343</v>
+        <v>13.649602380299312</v>
       </c>
       <c r="G3">
-        <v>23.0118941745345</v>
+        <v>23.011894263300565</v>
       </c>
       <c r="H3">
-        <v>-4.7877765167146702</v>
+        <v>-4.7877765179614107</v>
       </c>
       <c r="I3">
-        <v>5.42189056798862</v>
+        <v>5.4218905521954168</v>
       </c>
       <c r="J3">
-        <v>26.913802473858468</v>
+        <v>26.913802761955679</v>
       </c>
       <c r="K3">
-        <v>49.381701649119613</v>
+        <v>49.381701643570679</v>
       </c>
       <c r="L3">
-        <v>30.704060187937028</v>
+        <v>30.704060157288261</v>
       </c>
       <c r="M3">
-        <v>4.5135947170964398E-2</v>
+        <v>4.4912602056656002E-2</v>
       </c>
       <c r="N3">
-        <v>14.471734453334484</v>
+        <v>14.471734435433772</v>
       </c>
       <c r="O3">
-        <v>-21.550330200987492</v>
+        <v>-21.550330303880454</v>
       </c>
       <c r="P3">
-        <v>24.320246605864064</v>
+        <v>24.320246507597325</v>
       </c>
       <c r="Q3">
-        <v>10.689776645636664</v>
+        <v>10.689776686113875</v>
       </c>
       <c r="R3">
-        <v>6.872697997055659</v>
+        <v>6.8726977810813397</v>
       </c>
       <c r="S3">
-        <v>25.424488287240404</v>
+        <v>25.424488277246503</v>
       </c>
       <c r="T3">
-        <v>32.384174122692357</v>
+        <v>32.384174146809038</v>
       </c>
       <c r="U3">
-        <v>13.262062201210941</v>
+        <v>13.262062216266843</v>
       </c>
       <c r="V3">
-        <v>17.84449224856181</v>
+        <v>17.844492253549546</v>
       </c>
       <c r="W3">
-        <v>2.791578029913437</v>
+        <v>2.7915780530188132</v>
       </c>
       <c r="X3">
-        <v>-4.7361317885558041</v>
+        <v>-4.7361318113204289</v>
       </c>
       <c r="Y3">
-        <v>34.505531248926509</v>
+        <v>34.505531111870376</v>
       </c>
       <c r="Z3">
-        <v>18.524705097653978</v>
+        <v>18.524705061189145</v>
       </c>
       <c r="AA3">
-        <v>34.79578842835798</v>
+        <v>34.795788518448596</v>
       </c>
       <c r="AB3">
-        <v>29.895882109170397</v>
+        <v>29.895882162899461</v>
       </c>
       <c r="AC3">
-        <v>40.400610821347456</v>
+        <v>40.400610733658574</v>
       </c>
       <c r="AD3">
-        <v>40.655091662840029</v>
+        <v>40.655091650552535</v>
       </c>
       <c r="AE3">
-        <v>31.672044109630104</v>
+        <v>31.672043862430666</v>
       </c>
       <c r="AF3">
-        <v>22.716067129028623</v>
+        <v>22.716066837463952</v>
       </c>
       <c r="AG3">
-        <v>18.770150946599131</v>
+        <v>18.770150636831378</v>
       </c>
       <c r="AH3">
-        <v>9.9021593460002784</v>
+        <v>9.9021590501559373</v>
       </c>
       <c r="AI3">
-        <v>69.013718876481022</v>
+        <v>69.01371868337398</v>
       </c>
       <c r="AJ3">
-        <v>49.59020552244764</v>
+        <v>49.590205520781019</v>
       </c>
       <c r="AK3">
-        <v>28.505336834098038</v>
+        <v>28.505336554549583</v>
       </c>
       <c r="AL3">
-        <v>17.76512392666109</v>
+        <v>17.765124183809323</v>
       </c>
       <c r="AM3">
-        <v>26.152175080563268</v>
+        <v>26.152174988794961</v>
       </c>
       <c r="AN3">
-        <v>-7.7421542870741851</v>
+        <v>-7.7421543124176218</v>
       </c>
       <c r="AO3">
-        <v>43.091833582091596</v>
+        <v>43.091833687289572</v>
       </c>
       <c r="AP3">
-        <v>7.8941651663336874</v>
+        <v>7.8941650314633751</v>
       </c>
       <c r="AQ3">
-        <v>23.300423859276208</v>
+        <v>23.300423845647376</v>
       </c>
       <c r="AR3">
-        <v>42.44267526649346</v>
+        <v>42.442675302439298</v>
       </c>
       <c r="AS3">
-        <v>34.30179375796498</v>
+        <v>34.301793816628148</v>
       </c>
       <c r="AT3">
-        <v>22.192109973691068</v>
+        <v>22.192109805059708</v>
       </c>
       <c r="AU3">
-        <v>17.890791124653834</v>
+        <v>17.890790948109423</v>
       </c>
       <c r="AV3">
-        <v>18.018004738185294</v>
+        <v>18.018004591858976</v>
       </c>
       <c r="AW3">
-        <v>12.597818226910901</v>
+        <v>12.597816698778578</v>
       </c>
       <c r="AX3">
-        <v>21.815187273516997</v>
+        <v>21.815186930326444</v>
       </c>
       <c r="AY3">
-        <v>42.853519325036387</v>
+        <v>42.853519263349177</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>4.4129146340500522</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>12.515837252358311</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>25.78090522466383</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>33.227926896541859</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>14.23124422787296</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>3.2474800137679201</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>12.579414112178203</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>16.934993186982755</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>24.356461646719222</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>8.3663900714944806</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>9.2689855875930025</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-9.2209614442682355</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>18.773264803058705</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>20.41423487247226</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>22.22122441707182</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.7066263929391231</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-7.3733077377562868</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>31.406233766523776</v>
+        <v>22.320189614855913</v>
       </c>
       <c r="T2">
         <v>32.868682906136634</v>
@@ -588,55 +477,55 @@
         <v>15.811551191669501</v>
       </c>
       <c r="AA2">
-        <v>38.658925120785646</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>27.840014190997902</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>5.0377521324258083</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>40.6589044200649</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>14.538889942457676</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>19.913616783184594</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>27.822309985381555</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>24.847213372140438</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>33.6524774940874</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>23.811573964133878</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>28.505265418170321</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-2.4620928793634405</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>26.021814370035074</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>27.393209473391376</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>40.946358881784541</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>26.22551669410073</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-3.0402514088270851</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>31.103824841776063</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>13.307714624248202</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>13.001264992951173</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>27.879233967006485</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>26.731325839652182</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>13.649602380299312</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>23.011894263300565</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-4.7877765179614107</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>5.4218905521954168</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>26.913802761955679</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>49.381701643570679</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>30.704060157288261</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>4.4912602056656002E-2</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.471734435433772</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-21.550330303880454</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>24.320246507597325</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>10.689776686113875</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>6.8726977810813397</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>25.424488277246503</v>
@@ -743,55 +629,55 @@
         <v>18.524705061189145</v>
       </c>
       <c r="AA3">
-        <v>34.795788518448596</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>29.895882162899461</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>40.400610733658574</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>40.655091650552535</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>31.672043862430666</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>22.716066837463952</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>18.770150636831378</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>9.9021590501559373</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>69.01371868337398</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>49.590205520781019</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>28.505336554549583</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>17.765124183809323</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>26.152174988794961</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-7.7421543124176218</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>43.091833687289572</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>7.8941650314633751</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>23.300423845647376</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>42.442675302439298</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,11 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>4.4129145659858056</v>
-      </c>
       <c r="C2">
-        <v>9.4382600188870089</v>
-      </c>
-      <c r="D2">
-        <v>25.780905192524695</v>
+        <v>-7.3733077377562868</v>
       </c>
       <c r="E2">
-        <v>33.227926895101454</v>
+        <v>-3.0402514088270851</v>
       </c>
       <c r="F2">
         <v>14.231244259324519</v>
@@ -673,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.307714853780134</v>
+        <v>-10.570762868888698</v>
       </c>
       <c r="C3">
-        <v>13.001264980956758</v>
+        <v>6.8726977810813397</v>
       </c>
       <c r="D3">
-        <v>27.879234131696851</v>
+        <v>-4.6204314984218495</v>
       </c>
       <c r="E3">
-        <v>26.731325799583178</v>
+        <v>22.851515410309517</v>
       </c>
       <c r="F3">
         <v>13.649602412680343</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.4129145659858056</v>
-      </c>
-      <c r="C2">
-        <v>9.4382600188870089</v>
+        <v>17.69951367420683</v>
       </c>
       <c r="D2">
-        <v>25.780905192524695</v>
-      </c>
-      <c r="E2">
-        <v>33.227926895101454</v>
+        <v>26.021814370035074</v>
       </c>
       <c r="F2">
         <v>14.231244259324519</v>
@@ -664,16 +653,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.307714853780134</v>
+        <v>14.471734435433772</v>
       </c>
       <c r="C3">
-        <v>13.001264980956758</v>
+        <v>-10.570762868888698</v>
       </c>
       <c r="D3">
-        <v>27.879234131696851</v>
+        <v>26.152174988794961</v>
       </c>
       <c r="E3">
-        <v>36.962905883559785</v>
+        <v>-4.6204314984218495</v>
       </c>
       <c r="F3">
         <v>13.649602412680343</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,139 +513,145 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>4.4129146340500522</v>
+      </c>
+      <c r="C2">
+        <v>9.4382598385133925</v>
+      </c>
+      <c r="D2">
+        <v>25.78090522466383</v>
+      </c>
+      <c r="E2">
+        <v>33.227926896541859</v>
+      </c>
+      <c r="F2">
+        <v>14.23124422787296</v>
+      </c>
+      <c r="G2">
+        <v>10.019082072963496</v>
+      </c>
+      <c r="H2">
+        <v>12.579414112178203</v>
+      </c>
+      <c r="I2">
+        <v>23.060011632479551</v>
+      </c>
+      <c r="J2">
+        <v>24.356461646719222</v>
+      </c>
+      <c r="K2">
+        <v>8.3663900714944806</v>
+      </c>
+      <c r="L2">
+        <v>13.664675349144751</v>
+      </c>
+      <c r="M2">
+        <v>5.510227098501453E-2</v>
+      </c>
+      <c r="N2">
         <v>17.69951367420683</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>25.183336879887779</v>
+      </c>
+      <c r="Q2">
+        <v>0.7066263929391231</v>
+      </c>
+      <c r="R2">
+        <v>-7.3733077377562868</v>
+      </c>
+      <c r="T2">
+        <v>26.36117604360345</v>
+      </c>
+      <c r="U2">
+        <v>-6.6805920260392462E-2</v>
+      </c>
+      <c r="V2">
+        <v>19.921161843057316</v>
+      </c>
+      <c r="W2">
+        <v>-6.2051939677932353</v>
+      </c>
+      <c r="X2">
+        <v>2.7470834940754103</v>
+      </c>
+      <c r="Y2">
+        <v>30.360954400595229</v>
+      </c>
+      <c r="Z2">
+        <v>15.811551191669501</v>
+      </c>
+      <c r="AA2">
+        <v>38.658925120785646</v>
+      </c>
+      <c r="AB2">
+        <v>27.840014190997902</v>
+      </c>
+      <c r="AC2">
+        <v>5.0377521324258083</v>
+      </c>
+      <c r="AD2">
+        <v>40.6589044200649</v>
+      </c>
+      <c r="AE2">
+        <v>14.538889942457676</v>
+      </c>
+      <c r="AF2">
+        <v>19.913616783184594</v>
+      </c>
+      <c r="AG2">
+        <v>27.822309985381555</v>
+      </c>
+      <c r="AH2">
+        <v>24.847213372140438</v>
+      </c>
+      <c r="AI2">
+        <v>33.6524774940874</v>
+      </c>
+      <c r="AJ2">
+        <v>23.811573964133878</v>
+      </c>
+      <c r="AK2">
+        <v>28.505265418170321</v>
+      </c>
+      <c r="AL2">
+        <v>-2.4620928793634405</v>
+      </c>
+      <c r="AM2">
         <v>26.021814370035074</v>
       </c>
-      <c r="F2">
-        <v>14.231244259324519</v>
-      </c>
-      <c r="G2">
-        <v>10.019082527899135</v>
-      </c>
-      <c r="H2">
-        <v>12.579414199583717</v>
-      </c>
-      <c r="I2">
-        <v>23.060011476952713</v>
-      </c>
-      <c r="J2">
-        <v>24.356461538787137</v>
-      </c>
-      <c r="K2">
-        <v>8.3663901066190114</v>
-      </c>
-      <c r="L2">
-        <v>13.664675344974814</v>
-      </c>
-      <c r="M2">
-        <v>5.5102324924861869E-2</v>
-      </c>
-      <c r="N2">
-        <v>17.699513714184413</v>
-      </c>
-      <c r="P2">
-        <v>25.183336834254522</v>
-      </c>
-      <c r="Q2">
-        <v>0.70662640583407232</v>
-      </c>
-      <c r="R2">
-        <v>-7.3733077713065827</v>
-      </c>
-      <c r="T2">
-        <v>26.361176048342909</v>
-      </c>
-      <c r="U2">
-        <v>-6.6805906039681576E-2</v>
-      </c>
-      <c r="V2">
-        <v>19.921161976150973</v>
-      </c>
-      <c r="W2">
-        <v>-6.2051937375546071</v>
-      </c>
-      <c r="X2">
-        <v>2.7470835064760002</v>
-      </c>
-      <c r="Y2">
-        <v>30.3609544882801</v>
-      </c>
-      <c r="Z2">
-        <v>15.811551230661369</v>
-      </c>
-      <c r="AA2">
-        <v>38.658925152469791</v>
-      </c>
-      <c r="AB2">
-        <v>27.840014119588623</v>
-      </c>
-      <c r="AC2">
-        <v>5.0377521772654381</v>
-      </c>
-      <c r="AD2">
-        <v>40.658904397352202</v>
-      </c>
-      <c r="AE2">
-        <v>14.538890244073722</v>
-      </c>
-      <c r="AF2">
-        <v>19.913616953841721</v>
-      </c>
-      <c r="AG2">
-        <v>27.822309912839017</v>
-      </c>
-      <c r="AH2">
-        <v>24.847213470415802</v>
-      </c>
-      <c r="AI2">
-        <v>33.652477702420242</v>
-      </c>
-      <c r="AJ2">
-        <v>23.811574183159927</v>
-      </c>
-      <c r="AK2">
-        <v>28.505265366330985</v>
-      </c>
-      <c r="AL2">
-        <v>-2.4620927565204394</v>
-      </c>
-      <c r="AM2">
-        <v>26.021814536737214</v>
-      </c>
       <c r="AO2">
-        <v>40.946358781992878</v>
+        <v>40.946358881784541</v>
       </c>
       <c r="AP2">
-        <v>30.279413960110908</v>
+        <v>30.279413876202199</v>
       </c>
       <c r="AQ2">
-        <v>-3.0402512730504121</v>
+        <v>-3.0402514088270851</v>
       </c>
       <c r="AR2">
-        <v>31.103824836503343</v>
+        <v>31.103824841776063</v>
       </c>
       <c r="AS2">
-        <v>46.055233188519438</v>
+        <v>46.055233099078279</v>
       </c>
       <c r="AT2">
-        <v>12.892584923307734</v>
+        <v>12.892585056526308</v>
       </c>
       <c r="AU2">
-        <v>13.520093292099414</v>
+        <v>13.520093026689132</v>
       </c>
       <c r="AV2">
-        <v>26.323446126957066</v>
+        <v>26.323446215357915</v>
       </c>
       <c r="AW2">
-        <v>10.73968714517587</v>
+        <v>10.739686994984741</v>
       </c>
       <c r="AX2">
-        <v>32.951825609236138</v>
+        <v>32.951825730702424</v>
       </c>
       <c r="AY2">
-        <v>38.723375701347422</v>
+        <v>38.723375734655804</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -653,154 +659,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>13.307714624248202</v>
+      </c>
+      <c r="C3">
+        <v>13.001264992951173</v>
+      </c>
+      <c r="D3">
+        <v>27.879233967006485</v>
+      </c>
+      <c r="E3">
+        <v>36.962905918522893</v>
+      </c>
+      <c r="F3">
+        <v>13.649602380299312</v>
+      </c>
+      <c r="G3">
+        <v>23.011894263300565</v>
+      </c>
+      <c r="H3">
+        <v>-4.7877765179614107</v>
+      </c>
+      <c r="I3">
+        <v>5.4218905521954168</v>
+      </c>
+      <c r="J3">
+        <v>26.913802761955679</v>
+      </c>
+      <c r="K3">
+        <v>40.13141804140843</v>
+      </c>
+      <c r="L3">
+        <v>30.704060157288261</v>
+      </c>
+      <c r="M3">
+        <v>-4.5865540726101512</v>
+      </c>
+      <c r="N3">
         <v>14.471734435433772</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-10.570762868888698</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>24.320246507597325</v>
+      </c>
+      <c r="Q3">
+        <v>10.689776686113875</v>
+      </c>
+      <c r="R3">
+        <v>6.8726977810813397</v>
+      </c>
+      <c r="S3">
+        <v>25.424488277246503</v>
+      </c>
+      <c r="T3">
+        <v>32.384174146809038</v>
+      </c>
+      <c r="U3">
+        <v>13.262062216266843</v>
+      </c>
+      <c r="V3">
+        <v>21.501701601395833</v>
+      </c>
+      <c r="W3">
+        <v>2.7915780530188132</v>
+      </c>
+      <c r="X3">
+        <v>-4.7361318113204289</v>
+      </c>
+      <c r="Y3">
+        <v>34.505531111870376</v>
+      </c>
+      <c r="Z3">
+        <v>18.524705061189145</v>
+      </c>
+      <c r="AA3">
+        <v>34.795788518448596</v>
+      </c>
+      <c r="AB3">
+        <v>29.895882162899461</v>
+      </c>
+      <c r="AC3">
+        <v>40.400610733658574</v>
+      </c>
+      <c r="AD3">
+        <v>40.655091650552535</v>
+      </c>
+      <c r="AE3">
+        <v>31.672043862430666</v>
+      </c>
+      <c r="AF3">
+        <v>22.716066837463952</v>
+      </c>
+      <c r="AG3">
+        <v>18.770150636831378</v>
+      </c>
+      <c r="AH3">
+        <v>9.9021590501559373</v>
+      </c>
+      <c r="AI3">
+        <v>31.917887460856708</v>
+      </c>
+      <c r="AJ3">
+        <v>49.590205520781019</v>
+      </c>
+      <c r="AK3">
+        <v>28.505336554549583</v>
+      </c>
+      <c r="AL3">
+        <v>17.765124183809323</v>
+      </c>
+      <c r="AM3">
         <v>26.152174988794961</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-4.6204314984218495</v>
       </c>
-      <c r="F3">
-        <v>13.649602412680343</v>
-      </c>
-      <c r="G3">
-        <v>23.0118941745345</v>
-      </c>
-      <c r="H3">
-        <v>-4.7877765167146702</v>
-      </c>
-      <c r="I3">
-        <v>5.42189056798862</v>
-      </c>
-      <c r="J3">
-        <v>26.913802473858468</v>
-      </c>
-      <c r="K3">
-        <v>40.131418041521648</v>
-      </c>
-      <c r="L3">
-        <v>30.704060187937028</v>
-      </c>
-      <c r="M3">
-        <v>-4.5859415008244078</v>
-      </c>
-      <c r="N3">
-        <v>14.471734453334484</v>
-      </c>
-      <c r="O3">
-        <v>-10.570762691119787</v>
-      </c>
-      <c r="P3">
-        <v>24.320246605864064</v>
-      </c>
-      <c r="Q3">
-        <v>10.689776645636664</v>
-      </c>
-      <c r="R3">
-        <v>6.872697997055659</v>
-      </c>
-      <c r="S3">
-        <v>25.424488287240404</v>
-      </c>
-      <c r="T3">
-        <v>32.384174122692357</v>
-      </c>
-      <c r="U3">
-        <v>13.262062201210941</v>
-      </c>
-      <c r="V3">
-        <v>21.501701557599404</v>
-      </c>
-      <c r="W3">
-        <v>2.791578029913437</v>
-      </c>
-      <c r="X3">
-        <v>-4.7361317885558041</v>
-      </c>
-      <c r="Y3">
-        <v>34.505531248926509</v>
-      </c>
-      <c r="Z3">
-        <v>18.524705097653978</v>
-      </c>
-      <c r="AA3">
-        <v>34.79578842835798</v>
-      </c>
-      <c r="AB3">
-        <v>29.895882109170397</v>
-      </c>
-      <c r="AC3">
-        <v>40.400610821347456</v>
-      </c>
-      <c r="AD3">
-        <v>40.655091662840029</v>
-      </c>
-      <c r="AE3">
-        <v>31.672044109630104</v>
-      </c>
-      <c r="AF3">
-        <v>22.716067129028623</v>
-      </c>
-      <c r="AG3">
-        <v>18.770150946599131</v>
-      </c>
-      <c r="AH3">
-        <v>9.9021593460002784</v>
-      </c>
-      <c r="AI3">
-        <v>31.917887418050988</v>
-      </c>
-      <c r="AJ3">
-        <v>49.59020552244764</v>
-      </c>
-      <c r="AK3">
-        <v>28.505336834098038</v>
-      </c>
-      <c r="AL3">
-        <v>17.76512392666109</v>
-      </c>
-      <c r="AM3">
-        <v>26.152175080563268</v>
-      </c>
-      <c r="AN3">
-        <v>-4.6204315376207719</v>
-      </c>
       <c r="AO3">
-        <v>43.091833582091596</v>
+        <v>43.091833687289572</v>
       </c>
       <c r="AP3">
-        <v>7.8941651663336874</v>
+        <v>7.8941650314633751</v>
       </c>
       <c r="AQ3">
-        <v>22.851515577095842</v>
+        <v>22.851515410309517</v>
       </c>
       <c r="AR3">
-        <v>42.44267526649346</v>
+        <v>42.442675302439298</v>
       </c>
       <c r="AS3">
-        <v>34.30179375796498</v>
+        <v>34.301793816628148</v>
       </c>
       <c r="AT3">
-        <v>22.192109973691068</v>
+        <v>22.192109805059708</v>
       </c>
       <c r="AU3">
-        <v>19.437454790703438</v>
+        <v>19.437454781402689</v>
       </c>
       <c r="AV3">
-        <v>18.018004738185294</v>
+        <v>18.018004591858976</v>
       </c>
       <c r="AW3">
-        <v>12.597818226910901</v>
+        <v>12.597816698778578</v>
       </c>
       <c r="AX3">
-        <v>21.815187273516997</v>
+        <v>21.815186930326444</v>
       </c>
       <c r="AY3">
-        <v>42.853519325036387</v>
+        <v>42.853519263349177</v>
       </c>
     </row>
   </sheetData>
